--- a/data/income_statement/2digits/size/45_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/45_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>45-Wholesale and retail trade and repair of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>45-Wholesale and retail trade and repair of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,890 +841,1005 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>15030851.07455</v>
+        <v>15010192.36704</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>19041328.6116</v>
+        <v>19027997.46427</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>22397747.48181</v>
+        <v>22344384.52781</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>24068009.87036</v>
+        <v>24052719.948</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>27762329.5275</v>
+        <v>27983975.93454</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>31905474.79637</v>
+        <v>32046619.79626</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>37161262.5855</v>
+        <v>37808778.04254</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>37546330.47679</v>
+        <v>38987684.13455001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>42523259.67967</v>
+        <v>42305089.51717</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>60944757.12110001</v>
+        <v>61003005.4434</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>62191497.54817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>62478245.43965</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>93634287.045</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>13353310.94509</v>
+        <v>13330864.65967</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>17277164.27384</v>
+        <v>17284252.64203</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>20303890.48694</v>
+        <v>20269068.22916</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>21824647.38829999</v>
+        <v>21747185.95013</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>25198969.40399</v>
+        <v>25409970.33176</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>28524012.71781</v>
+        <v>28670327.71996</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>33470983.42737</v>
+        <v>34020547.58516</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>33277710.69648</v>
+        <v>34641067.33695</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>37541876.16613</v>
+        <v>37343063.39139</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>53810607.76054001</v>
+        <v>53743480.5848</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>54170860.6082</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>54437239.89208</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>84097568.072</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1025946.51247</v>
+        <v>1027496.02603</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>1046010.4125</v>
+        <v>1030683.68033</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1338824.81087</v>
+        <v>1321952.90108</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1304628.35752</v>
+        <v>1349077.3945</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1494155.39267</v>
+        <v>1484235.09523</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>2269716.3112</v>
+        <v>2250130.51316</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2361838.48025</v>
+        <v>2446771.94446</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2916281.34382</v>
+        <v>2962465.16279</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>3671630.626350001</v>
+        <v>3662711.84314</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4629308.224880001</v>
+        <v>4725450.351139999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>5500998.197269999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5465668.4616</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6261206.71</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>651593.61699</v>
+        <v>651831.6813399999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>718153.92526</v>
+        <v>713061.14191</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>755032.1840000001</v>
+        <v>753363.3975699999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>938734.1245399999</v>
+        <v>956456.60337</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1069204.73084</v>
+        <v>1089770.50755</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1111745.76736</v>
+        <v>1126161.56314</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1328440.67788</v>
+        <v>1341458.51292</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1352338.43649</v>
+        <v>1384151.63481</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1309752.88719</v>
+        <v>1299314.28264</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2504841.13568</v>
+        <v>2534074.50746</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2519638.7427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2575337.08597</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3275512.263</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>478135.24116</v>
+        <v>492382.92853</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>565083.7950800001</v>
+        <v>564878.64414</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>658925.90833</v>
+        <v>655190.4563</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>695166.99639</v>
+        <v>692553.3251600001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>841720.3286700001</v>
+        <v>841976.34064</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>998044.3344399999</v>
+        <v>1005371.28611</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1322789.96256</v>
+        <v>1361940.99391</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1013325.39979</v>
+        <v>1021211.15587</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1204689.94531</v>
+        <v>1209928.43894</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2644048.98828</v>
+        <v>2643407.49682</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2404142.75687</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>2490432.81571</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>3018819.797</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>81351.63758</v>
+        <v>95613.03774000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>77378.81169000002</v>
+        <v>77041.05709999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>97100.81401999999</v>
+        <v>93249.70865999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>124337.97823</v>
+        <v>124919.8292</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>146368.75573</v>
+        <v>141847.69416</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>183721.55085</v>
+        <v>181156.94973</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>214141.24276</v>
+        <v>217404.32099</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>263663.13564</v>
+        <v>261505.33554</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>339621.01924</v>
+        <v>335898.0523</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>563647.83367</v>
+        <v>556995.0676299999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>420646.04302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>428126.42129</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>552584.097</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>317167.62016</v>
+        <v>314022.43691</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>334005.07566</v>
+        <v>334720.36313</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>352438.7679100001</v>
+        <v>352617.0518</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>356146.85962</v>
+        <v>351632.08782</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>424343.44748</v>
+        <v>429046.70212</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>523067.32449</v>
+        <v>531793.4825299999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>784100.2916300001</v>
+        <v>791188.8427200001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>432635.56665</v>
+        <v>440229.66714</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>500465.52421</v>
+        <v>499088.1649500001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>1517683.16261</v>
+        <v>1517275.24662</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>1450227.35514</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1492831.66419</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1254534.884</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>79615.98342</v>
+        <v>82747.45388</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>153699.90773</v>
+        <v>153117.22391</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>209386.3264</v>
+        <v>209323.69584</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>214682.15854</v>
+        <v>216001.40814</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>271008.12546</v>
+        <v>271081.94436</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>291255.4591</v>
+        <v>292420.85385</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>324548.42817</v>
+        <v>353347.8302</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>317026.6975</v>
+        <v>319476.15319</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>364603.40186</v>
+        <v>374942.22169</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>562717.992</v>
+        <v>569137.1825699999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>533269.3587099999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>569474.73023</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1211700.816</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>14552715.83339</v>
+        <v>14517809.43851</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>18476244.81652</v>
+        <v>18463118.82013</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>21738821.57348</v>
+        <v>21689194.07151</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>23372842.87397</v>
+        <v>23360166.62284</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>26920609.19883</v>
+        <v>27141999.5939</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>30907430.46193</v>
+        <v>31041248.51015</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>35838472.62294</v>
+        <v>36446837.04863001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>36533005.07699999</v>
+        <v>37966472.97868</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>41318569.73435999</v>
+        <v>41095161.07822999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>58300708.13282</v>
+        <v>58359597.94658</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>59787354.79130001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>59987812.62394001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>90615467.248</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>12997731.49895</v>
+        <v>12984254.62162</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>16897990.30392</v>
+        <v>16896355.82693</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>19870157.17802</v>
+        <v>19850013.95601</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>21250595.51087</v>
+        <v>21266075.1796</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>24447383.43152</v>
+        <v>24679247.33206</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>28063131.3576</v>
+        <v>28202740.42543</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>32606610.48696</v>
+        <v>33201028.00584</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>33162812.58247</v>
+        <v>34561905.03107</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>37294463.87896</v>
+        <v>37121622.52950999</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>52508462.08594999</v>
+        <v>52610928.57448</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>53866000.28413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>54073102.23632</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>83171363.779</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>218239.18935</v>
+        <v>212753.88309</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>267018.41038</v>
+        <v>256789.0914</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>624784.88524</v>
+        <v>616675.75929</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>328077.72596</v>
+        <v>345075.16783</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>515562.81141</v>
+        <v>506920.61052</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>648347.1031699999</v>
+        <v>649477.6899999999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>862458.95802</v>
+        <v>872126.06854</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>738218.2933</v>
+        <v>728195.90304</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>963412.9958299999</v>
+        <v>914709.7350900001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2102439.63626</v>
+        <v>2066453.55749</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2006467.60774</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1933344.20206</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1858921.132</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>12161206.72934</v>
+        <v>12170049.70148</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>15939531.12663</v>
+        <v>15950398.28092</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>18572462.48</v>
+        <v>18569898.81677</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>20103018.45078</v>
+        <v>20114633.10735</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>22900512.04892</v>
+        <v>23122695.08236</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>26310755.89379</v>
+        <v>26413976.45049</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>30498421.84115</v>
+        <v>31048846.42176</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>30883290.57389</v>
+        <v>32265155.5479</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>34293423.00957</v>
+        <v>34170449.88456</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>47668865.31194</v>
+        <v>47790191.02224</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>48654641.57695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>48826516.22017</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>78013711.293</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>610309.6065399999</v>
+        <v>593739.90879</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>668893.6635599999</v>
+        <v>666242.6896599999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>659816.53734</v>
+        <v>649906.0251900001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>790364.7802400001</v>
+        <v>776093.1606400001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>985763.8754599999</v>
+        <v>993529.2104099999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1046509.23221</v>
+        <v>1073774.11981</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1156399.01833</v>
+        <v>1182563.7611</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1404664.73797</v>
+        <v>1409586.62972</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1826025.22984</v>
+        <v>1818906.77222</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2483177.998309999</v>
+        <v>2478749.03442</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2940386.18201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3000091.46994</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2986906.274</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>7975.97372</v>
+        <v>7711.128259999999</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>22547.10335</v>
+        <v>22925.76495</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>13093.27544</v>
+        <v>13533.35476</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>29134.55389</v>
+        <v>30273.74378</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>45544.69573</v>
+        <v>56102.42877</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>57519.12843</v>
+        <v>65512.16512999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>89330.66945999999</v>
+        <v>97491.75444</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>136638.97731</v>
+        <v>158966.95041</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>211602.64372</v>
+        <v>217556.13764</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>253979.13944</v>
+        <v>275534.96033</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>264504.91743</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>313150.34415</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>311825.08</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1554984.33444</v>
+        <v>1533554.81689</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1578254.5126</v>
+        <v>1566762.9932</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1868664.39546</v>
+        <v>1839180.1155</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>2122247.3631</v>
+        <v>2094091.44324</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>2473225.76731</v>
+        <v>2462752.26184</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2844299.10433</v>
+        <v>2838508.08472</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3231862.13598</v>
+        <v>3245809.04279</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3370192.49453</v>
+        <v>3404567.94761</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4024105.8554</v>
+        <v>3973538.54872</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>5792246.046870001</v>
+        <v>5748669.3721</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5921354.50717</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5914710.38762</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7444103.469</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1085228.31588</v>
+        <v>1076808.83192</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1128569.46408</v>
+        <v>1128431.18549</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1294493.33649</v>
+        <v>1272137.16938</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1562802.46493</v>
+        <v>1533591.59946</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1782442.0567</v>
+        <v>1783030.45978</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2080823.36036</v>
+        <v>2042528.72499</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2195911.59626</v>
+        <v>2173130.15663</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2383233.68319</v>
+        <v>2374952.584890001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2688506.72756</v>
+        <v>2588107.84928</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3705399.7324</v>
+        <v>3715602.12339</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>4000953.24856</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3975328.402309999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4301023.037</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>704.7335499999999</v>
+        <v>709.3391</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>197.90889</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>3897.23999</v>
+        <v>3298.4094</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1098.98909</v>
+        <v>1124.46851</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2914.96076</v>
+        <v>5964.89891</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1696.45478</v>
+        <v>1673.67542</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2322.84652</v>
+        <v>892.6411400000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2331.58728</v>
+        <v>2340.14733</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>2068.17847</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>347.90845</v>
+        <v>115.53609</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>219.83331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>171.48842</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>2625.703</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>429644.6644</v>
+        <v>433765.53738</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>426940.6344799999</v>
+        <v>436366.42438</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>494665.7995500001</v>
+        <v>489355.23954</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>598994.82634</v>
+        <v>592254.8616800001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>732845.5800600001</v>
+        <v>741003.58646</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>883855.61734</v>
+        <v>883748.51602</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>860187.8416</v>
+        <v>862253.1309700001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>918836.50223</v>
+        <v>924799.3002300001</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>1062952.63718</v>
+        <v>1054528.3323</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1723168.04258</v>
+        <v>1756717.06926</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1768406.82625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1797421.04039</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1959380.493</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>654878.9179300001</v>
+        <v>642333.9554399999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>701430.9207100001</v>
+        <v>691866.85222</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>795930.2969500001</v>
+        <v>779483.5204400001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>962708.6495000001</v>
+        <v>940212.2692699999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1046681.51588</v>
+        <v>1036061.97441</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1195271.28824</v>
+        <v>1157106.53355</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1333400.90814</v>
+        <v>1309984.38452</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1462065.59368</v>
+        <v>1447813.13733</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1623485.91191</v>
+        <v>1531511.33851</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1981883.78137</v>
+        <v>1958769.51804</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2232326.589</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2177735.8735</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2339016.841</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>469756.01856</v>
+        <v>456745.98497</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>449685.04852</v>
+        <v>438331.80771</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>574171.05897</v>
+        <v>567042.94612</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>559444.8981699999</v>
+        <v>560499.84378</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>690783.7106100002</v>
+        <v>679721.80206</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>763475.7439700002</v>
+        <v>795979.35973</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1035950.53972</v>
+        <v>1072678.88616</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>986958.8113399999</v>
+        <v>1029615.36272</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1335599.12784</v>
+        <v>1385430.69944</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2086846.31447</v>
+        <v>2033067.24871</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1920401.25861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1939381.98531</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3143080.432</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>226037.88559</v>
+        <v>256975.36733</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>232316.12606</v>
+        <v>240066.75696</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>243777.67965</v>
+        <v>244305.53778</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>252389.16872</v>
+        <v>266270.1306</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>341045.6097</v>
+        <v>469732.70384</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>419453.80735</v>
+        <v>550872.52038</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>679843.9885900001</v>
+        <v>705351.7082</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>519609.39674</v>
+        <v>553121.29795</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>609038.7515300001</v>
+        <v>562959.404</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2218742.21201</v>
+        <v>2148109.49275</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1527721.61338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1544034.03018</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1982291.948</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>11574.32241</v>
+        <v>1398.12899</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>7589.94866</v>
+        <v>5948.131939999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>5477.4335</v>
+        <v>49.35</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>10221.81245</v>
+        <v>6514.54686</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>7729.66475</v>
+        <v>5056.226630000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>5301.019560000001</v>
+        <v>8166.004470000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2889.54945</v>
+        <v>7243.6611</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>16537.55745</v>
+        <v>14247.0126</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>12544.22933</v>
+        <v>8486.939779999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>20760.46925</v>
+        <v>13925.42695</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>25202.24946</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>12367.35013</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>8428.216</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>348.52622</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>2822.24208</v>
+        <v>567.2499399999999</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>2643.22423</v>
+        <v>312.32446</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>2021.2782</v>
+        <v>555.1806899999999</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>667.07501</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>2860.168380000001</v>
+        <v>154.62422</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>1034.13241</v>
@@ -1832,259 +1848,294 @@
         <v>262.30285</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>3704.08298</v>
+        <v>4097.028979999999</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>19127.25068</v>
+        <v>1361.97552</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>6126.35525</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>6209.1432</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>3537.547</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>27457.71402</v>
+        <v>38961.20205</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>26650.40128</v>
+        <v>29786.54782</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>25139.11849</v>
+        <v>26183.0766</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>33748.55523</v>
+        <v>41524.9063</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>33796.00549999999</v>
+        <v>41079.79096</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>46461.49671</v>
+        <v>48778.7637</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>49328.64313000001</v>
+        <v>53155.59010000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>45738.87164</v>
+        <v>39212.92238</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>63804.39271</v>
+        <v>53953.06628</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>169215.73352</v>
+        <v>138771.23025</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>232235.89472</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>234364.18158</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>204893.988</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>7476.02835</v>
+        <v>10641.84775</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>9636.74171</v>
+        <v>9607.584150000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>11179.16033</v>
+        <v>11419.62941</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>12275.72014</v>
+        <v>12216.80371</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>15266.41293</v>
+        <v>14763.00072</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>14478.80496</v>
+        <v>14013.32291</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>21524.57852</v>
+        <v>21486.9541</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>15726.5767</v>
+        <v>15607.03492</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>8967.249139999998</v>
+        <v>8930.790999999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>30059.39681</v>
+        <v>30370.58932</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>39607.58784</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>39841.24243</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>46929.775</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>5017.04416</v>
+        <v>5809.21932</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>4150.24467</v>
+        <v>4061.16837</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1634.70198</v>
+        <v>1540.06488</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>4291.620099999999</v>
+        <v>3069.45615</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>11890.84059</v>
+        <v>12646.33404</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>18602.50402</v>
+        <v>13213.51746</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4083.09963</v>
+        <v>3715.88661</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>6674.14029</v>
+        <v>6483.32259</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>5465.83783</v>
+        <v>5661.890199999999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>7716.73297</v>
+        <v>7994.59342</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>13197.40925</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>13589.38425</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>13728.517</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>4470.560739999999</v>
+        <v>4342.83604</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1027.75345</v>
+        <v>905.38402</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1682.00829</v>
+        <v>1557.91432</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2015.72636</v>
+        <v>1906.99668</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>3426.346139999999</v>
+        <v>3130.47181</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>3062.40249</v>
+        <v>2869.02841</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>19862.97295</v>
+        <v>3719.16096</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>4331.93792</v>
+        <v>4116.667420000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>5100.77896</v>
+        <v>4928.33394</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>12859.38553</v>
+        <v>12850.89239</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>19461.54333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>18799.54995</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>25505.186</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>99435.67903</v>
+        <v>106612.95679</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>104409.85555</v>
+        <v>106709.8117</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>120450.27436</v>
+        <v>114427.62482</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>94910.41836</v>
+        <v>101551.76407</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>161327.41226</v>
+        <v>185771.75806</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>204085.74291</v>
+        <v>226196.13378</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>330855.55485</v>
+        <v>373047.97661</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>262633.97852</v>
+        <v>260640.4433</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>318646.9176099999</v>
+        <v>311390.9131</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1550138.87075</v>
+        <v>1503442.42844</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>826712.83485</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>845150.5348199999</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1367158.887</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>319.70864</v>
+        <v>398.11732</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>90.35385000000001</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>56.9867</v>
+        <v>8.22452</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>275.10447</v>
+        <v>303.22043</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>1498.04235</v>
+        <v>14876.01818</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>4720.84859</v>
+        <v>4281.209100000001</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>3869.00937</v>
+        <v>9330.15184</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>2877.02001</v>
+        <v>7715.82805</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>4756.109179999999</v>
+        <v>8029.124400000001</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>27245.41153</v>
+        <v>44457.69339999999</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>16258.47649</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>15845.62842</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>8194.639999999999</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>33.20775</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>141.51684</v>
+        <v>140.5156</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>220.06423</v>
@@ -2102,205 +2153,230 @@
         <v>77.18961999999999</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>275.09317</v>
+        <v>176.67528</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>227.53971</v>
+        <v>148.54167</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>1065.04225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>104.03027</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>818.457</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>69905.09427</v>
+        <v>88429.32509999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>75797.06797000002</v>
+        <v>82250.00956999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>75294.70754</v>
+        <v>88587.26454</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>92628.93341</v>
+        <v>98627.25571000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>105387.43191</v>
+        <v>191685.65017</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>119272.47539</v>
+        <v>232591.57199</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>246319.25866</v>
+        <v>232541.00485</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>164551.91819</v>
+        <v>204659.08856</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>185821.61408</v>
+        <v>157332.77465</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>381618.96097</v>
+        <v>394934.6630599999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>347854.21994</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>357762.98513</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>303096.735</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>142170.52226</v>
+        <v>155562.11523</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>122583.40339</v>
+        <v>133726.5958</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>186009.79002</v>
+        <v>220830.99031</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>131507.65952</v>
+        <v>152924.8355</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>264630.07455</v>
+        <v>410702.63355</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>284339.0165</v>
+        <v>410808.06032</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>512084.9157</v>
+        <v>594017.48421</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>339038.13815</v>
+        <v>407964.9738099999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>403101.30976</v>
+        <v>432816.40689</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2097182.62224</v>
+        <v>2003309.5339</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1121472.46029</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1137310.57948</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1409832.746</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>5240.65002</v>
+        <v>5300.70675</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>7348.27559</v>
+        <v>6660.97839</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>5070.90654</v>
+        <v>4792.55148</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>5888.961310000001</v>
+        <v>5531.23167</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>7100.306070000001</v>
+        <v>6660.24011</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>9543.145590000002</v>
+        <v>10080.12465</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>14793.57839</v>
+        <v>14052.31358</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>13314.65571</v>
+        <v>12662.5783</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>18363.76559</v>
+        <v>19530.01129</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>27375.43362</v>
+        <v>26120.76797</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>21462.87668</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>21334.02694</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>24956.871</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>23743.94456</v>
+        <v>21363.20232</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>12533.88155</v>
+        <v>12110.94392</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>13725.49727</v>
+        <v>12743.02398</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>27021.39459</v>
+        <v>32386.53395</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>29035.06443</v>
+        <v>32294.98435</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>42107.91348</v>
+        <v>24531.82031</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>36552.27948</v>
+        <v>35480.96754</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>22054.82438</v>
+        <v>22731.82705</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>19075.28659</v>
+        <v>18160.42328</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>76197.90325</v>
+        <v>72072.2889</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>36030.6839</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>37946.95985</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>35130.267</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>664.8011100000001</v>
+        <v>663.39589</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>420.96765</v>
+        <v>362.79709</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>340.67462</v>
+        <v>237.87695</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>147.20169</v>
+        <v>133.86533</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>3304.4951</v>
+        <v>3285.17228</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1832.08582</v>
+        <v>2336.930139999999</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>913.06706</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>3552.8242</v>
+        <v>834.1077899999999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>12190.20782</v>
+        <v>110.25139</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>392.3729</v>
@@ -2308,89 +2384,104 @@
       <c r="M39" s="48" t="n">
         <v>208.1456</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1415.683</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>97188.63055</v>
+        <v>106508.22498</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>92820.74502</v>
+        <v>99970.10374999999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>156885.74478</v>
+        <v>154895.39345</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>83059.03601</v>
+        <v>92159.57898999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>202904.207</v>
+        <v>248272.31274</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>200972.48323</v>
+        <v>236391.9718</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>352569.02556</v>
+        <v>426342.0556799999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>266949.0481200001</v>
+        <v>293698.20988</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>314402.6776699999</v>
+        <v>346610.55537</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1848420.44673</v>
+        <v>1738982.98848</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>953486.9091</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>963573.78654</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1271563.917</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>190.10561</v>
+        <v>641.7285800000001</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>4.49824</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>54.22828999999999</v>
+        <v>44.7011</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>97.76445</v>
+        <v>1608.68224</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>3663.19715</v>
+        <v>15277.21679</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>2889.65197</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>4739.53828</v>
+        <v>9567.273949999999</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>3236.2206</v>
+        <v>8237.65897</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>5851.617720000001</v>
+        <v>9507.108920000001</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>32841.16666</v>
+        <v>50351.62552000001</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>15004.6449</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>15208.01635</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>10857.291</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>59.34629</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>15083.04412</v>
+        <v>21025.51042</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>9439.662700000001</v>
+        <v>14601.90177</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>9915.238519999999</v>
+        <v>48099.94335</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>15287.12775</v>
+        <v>21098.7696</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>18616.6438</v>
+        <v>104906.54628</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>26948.58699</v>
+        <v>134532.41203</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>102513.0804</v>
+        <v>107657.45987</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>29817.30223</v>
+        <v>69687.32891</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>33217.75437</v>
+        <v>38898.05664</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>111893.39406</v>
+        <v>115327.58511</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>95279.20011000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>99039.64420000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>65908.717</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>272235.78652</v>
+        <v>294551.1173400001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>199686.59799</v>
+        <v>214891.2673</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>231302.60406</v>
+        <v>252642.01405</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>329707.3692</v>
+        <v>337079.09708</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>390161.30228</v>
+        <v>401541.3760699999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>499246.5885600001</v>
+        <v>501921.7942000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>527125.9953599999</v>
+        <v>544793.14795</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>623060.47147</v>
+        <v>630969.797</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>763404.03127</v>
+        <v>751943.5772300001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1811530.47307</v>
+        <v>1745948.32861</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1730878.51025</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1683190.94837</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1255565.757</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>263071.5216</v>
+        <v>275945.47922</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>191967.39741</v>
+        <v>183731.69605</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>220104.79358</v>
+        <v>218009.91372</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>313563.78431</v>
+        <v>317296.32167</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>374456.92617</v>
+        <v>381521.44198</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>477737.38624</v>
+        <v>469911.38852</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>501070.50623</v>
+        <v>501624.8605900001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>598341.8648300001</v>
+        <v>605347.008</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>715846.1499600001</v>
+        <v>706940.67482</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1731477.80468</v>
+        <v>1670362.02286</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1641527.96073</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1601933.06131</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1195375.471</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>9164.26492</v>
+        <v>18605.63812</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>7719.200580000001</v>
+        <v>31159.57125</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>11197.81048</v>
+        <v>34632.10033</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>16143.58489</v>
+        <v>19782.77541</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>15704.37611</v>
+        <v>20019.93409</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>21509.20232</v>
+        <v>32010.40568</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>26055.48913</v>
+        <v>43168.28736</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>24718.60664</v>
+        <v>25622.789</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>47557.88131</v>
+        <v>45002.90241</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>80052.66839000001</v>
+        <v>75586.30575</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>89350.54952</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>81257.88706000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>60190.286</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>281387.59537</v>
+        <v>263608.11973</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>359731.1731999999</v>
+        <v>329780.70157</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>400636.34454</v>
+        <v>337875.47954</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>350619.0381700001</v>
+        <v>336766.0418</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>377037.94348</v>
+        <v>337210.49628</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>399343.94626</v>
+        <v>434122.02559</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>676583.61725</v>
+        <v>639219.9622000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>544469.59846</v>
+        <v>543801.88986</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>778132.5383400001</v>
+        <v>763630.1193200001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>396875.4311700001</v>
+        <v>431918.87895</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>595771.9014499999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>662914.4876400001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2459973.877</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>94327.31011999999</v>
+        <v>84092.12908999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>121528.0949</v>
+        <v>113428.63068</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>156901.05647</v>
+        <v>466923.91746</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>108845.67537</v>
+        <v>107763.53853</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>158545.38086</v>
+        <v>190086.6103</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>286654.73659</v>
+        <v>241554.21203</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>251383.12603</v>
+        <v>196715.59164</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>216210.38062</v>
+        <v>214193.19857</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>227190.75496</v>
+        <v>220960.23924</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>540077.8523499999</v>
+        <v>545470.8645499999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>557519.5666499998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>589783.5487899999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>505578.268</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>980.9608000000001</v>
+        <v>743.54547</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>2553.04368</v>
+        <v>2478.99739</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>30353.24226</v>
+        <v>30345.03844</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>415.2853299999999</v>
+        <v>383.32859</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>3007.22883</v>
+        <v>2851.66696</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>3264.71951</v>
+        <v>3193.22108</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3194.24751</v>
+        <v>1631.05658</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2877.78424</v>
+        <v>2451.08709</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>3239.28159</v>
+        <v>3240.34352</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>5767.225959999999</v>
+        <v>4431.98113</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2696.92619</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>3153.43442</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5474.63</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>93346.34931999999</v>
+        <v>83348.58361999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>118975.05122</v>
+        <v>110949.63329</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>126547.81421</v>
+        <v>436578.8790200001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>108430.39004</v>
+        <v>107380.20994</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>155538.15203</v>
+        <v>187234.94334</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>283390.01708</v>
+        <v>238360.99095</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>248188.87852</v>
+        <v>195084.53506</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>213332.59638</v>
+        <v>211742.11148</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>223951.47337</v>
+        <v>217719.89572</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>534310.62639</v>
+        <v>541038.88342</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>554822.6404599999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>586630.11437</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>500103.638</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>58862.94922</v>
+        <v>60976.42378</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>136320.44447</v>
+        <v>62574.90401</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>344566.01638</v>
+        <v>371593.05329</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>65738.35141999999</v>
+        <v>61139.88523</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>89596.51185000001</v>
+        <v>96776.82968000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>166927.84498</v>
+        <v>203907.21293</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>109712.05397</v>
+        <v>103737.59878</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>235542.4272</v>
+        <v>217939.87394</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>137614.79585</v>
+        <v>117515.4544</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>350213.2906599999</v>
+        <v>336618.95795</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>271955.60143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>247638.10848</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>214436.012</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>598.4266</v>
+        <v>1211.66581</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>296.09784</v>
+        <v>254.283</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1054.60934</v>
+        <v>281.12359</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>2908.63559</v>
+        <v>2476.65472</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1383.14844</v>
+        <v>1057.94756</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>2571.15559</v>
+        <v>1545.78602</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>363.6123</v>
+        <v>596.36969</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>434.70591</v>
+        <v>353.9682</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>637.6833399999999</v>
+        <v>607.33334</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>998.37486</v>
+        <v>498.17853</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>1314.06128</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>2270.866</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>6450.535130000001</v>
+        <v>3721.96436</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2109.81006</v>
+        <v>1840.28033</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>3683.62757</v>
+        <v>2787.67416</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2090.21302</v>
+        <v>1649.98117</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>6908.32162</v>
+        <v>6482.63173</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2391.46838</v>
+        <v>2412.89754</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3184.91204</v>
+        <v>3513.44403</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4446.97854</v>
+        <v>4429.099470000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>23702.10142</v>
+        <v>4518.30747</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4981.67375</v>
+        <v>5095.0245</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>10153.073</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>7550.1925</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>14459.422</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>51813.98748999999</v>
+        <v>56042.79361</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>133914.53657</v>
+        <v>60480.34068</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>339827.77947</v>
+        <v>368524.25554</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>60739.50281000001</v>
+        <v>57013.24933999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>81305.04178999999</v>
+        <v>89236.25039</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>161965.22101</v>
+        <v>199948.52937</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>106163.52963</v>
+        <v>99627.78506000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>230660.74275</v>
+        <v>213156.80627</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>113275.01109</v>
+        <v>112389.81359</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>344233.2420499999</v>
+        <v>331025.75492</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>260488.46715</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>238773.8547</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>197705.724</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>316851.95627</v>
+        <v>286723.82504</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>344938.82363</v>
+        <v>380634.42824</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>212971.38463</v>
+        <v>433206.34371</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>393726.36212</v>
+        <v>383389.6951</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>445986.81249</v>
+        <v>430520.2769</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>519070.83787</v>
+        <v>471769.02469</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>818254.68931</v>
+        <v>732197.9550599999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>525137.55188</v>
+        <v>540055.21449</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>867708.4974499999</v>
+        <v>867074.90416</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>586739.99286</v>
+        <v>640770.7855499999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>881335.8666700001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1005059.92795</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2751116.133</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>66782.07351999999</v>
+        <v>68372.53104999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>77581.22554</v>
+        <v>76271.05109000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>89741.04337999999</v>
+        <v>87931.95178</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>89018.71072</v>
+        <v>88758.31619</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>112036.50101</v>
+        <v>110062.33989</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>128681.43327</v>
+        <v>125717.90408</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>152363.87102</v>
+        <v>149000.7513</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>144467.96044</v>
+        <v>143710.94096</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>193437.98221</v>
+        <v>183497.2114</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>266394.89292</v>
+        <v>272613.25953</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>270542.48719</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>277692.92444</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>546766.54</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>250069.88275</v>
+        <v>218351.29399</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>267357.59809</v>
+        <v>304363.37715</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>123230.34125</v>
+        <v>345274.39193</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>304707.6514</v>
+        <v>294631.37891</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>333950.31148</v>
+        <v>320457.93701</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>390389.4046</v>
+        <v>346051.12061</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>665890.8182900001</v>
+        <v>583197.2037599999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>380669.59144</v>
+        <v>396344.2735299999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>674270.51524</v>
+        <v>683577.69276</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>320345.0999399999</v>
+        <v>368157.52602</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>610793.37948</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>727367.00351</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2204349.593</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>819</v>
+        <v>691</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>917</v>
+        <v>796</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1065</v>
+        <v>912</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1230</v>
+        <v>1045</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>979</v>
+        <v>847</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1118</v>
+        <v>947</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1235</v>
+        <v>1044</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1385</v>
+        <v>1142</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1645</v>
+        <v>1325</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>768</v>
+        <v>686</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>688</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>